--- a/data/trans_orig/IP16B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{231567A0-5E90-42C7-B93C-4EB6D22CA69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BFEFE57-194C-4F83-9A1C-171B6AB55D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{588F573C-2172-4D28-BC9A-7A36586DD13D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3201247-E83B-411F-9DC6-633E22FA97A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +91,7 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>34,8%</t>
+    <t>21,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>17,82%</t>
   </si>
   <si>
-    <t>65,2%</t>
+    <t>78,78%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -118,37 +118,37 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>78,73%</t>
+    <t>81,04%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>75,8%</t>
+    <t>82,01%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>86,1%</t>
+    <t>84,66%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>21,27%</t>
+    <t>18,96%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>24,2%</t>
+    <t>17,99%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>13,9%</t>
+    <t>15,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -175,19 +175,19 @@
     <t>96,51%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>80,73%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>78,88%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>86,16%</t>
+    <t>87,02%</t>
   </si>
   <si>
     <t>98,49%</t>
@@ -196,13 +196,13 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>19,24%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>21,12%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -211,7 +211,7 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>13,84%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -247,31 +247,31 @@
     <t>81,95%</t>
   </si>
   <si>
-    <t>29,42%</t>
+    <t>28,65%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>56,89%</t>
+    <t>57,18%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>70,58%</t>
+    <t>71,35%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>43,11%</t>
+    <t>42,82%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>72,2%</t>
+    <t>74,84%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -280,13 +280,13 @@
     <t>97,1%</t>
   </si>
   <si>
-    <t>85,67%</t>
+    <t>86,51%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>27,8%</t>
+    <t>25,16%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -295,10 +295,10 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2015 (Tasa respuesta: 2,35%)</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2016 (Tasa respuesta: 2,35%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C5CEA-F606-40E7-AF9B-81C354B4A74B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E9D0E3-4C87-4801-BFB7-00F7D9B38E7C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1512,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98DBF17-27EE-43DE-9386-7D20B470E118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117B3B49-48ED-4BE2-A0A9-5B08EB203579}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2263,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB94D7F-E6E3-4829-8F43-7C51ECE5FF64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD08CF5E-9647-495F-B208-940B3DCB5D1B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BFEFE57-194C-4F83-9A1C-171B6AB55D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67214859-D7C0-4061-98E1-E3097A574BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3201247-E83B-411F-9DC6-633E22FA97A7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4CDAA2BC-6398-45BF-AB89-2FD73F6379D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2007 (Tasa respuesta: 2,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,6 +73,12 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -82,136 +88,130 @@
     <t>100%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>32,58%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>73,12%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>80,65%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>84,66%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>19,35%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>15,34%</t>
+    <t>16,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>82,39%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>17,61%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -226,87 +226,87 @@
     <t>30,57%</t>
   </si>
   <si>
+    <t>89,47%</t>
+  </si>
+  <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
     <t>94,7%</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
     <t>5,3%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>28,65%</t>
+    <t>37,84%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>57,18%</t>
+    <t>50,39%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>71,35%</t>
+    <t>62,16%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>42,82%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>70,94%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>86,51%</t>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>29,06%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>13,49%</t>
+    <t>13,83%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2016 (Tasa respuesta: 2,35%)</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>77,15%</t>
   </si>
   <si>
@@ -334,19 +334,19 @@
     <t>17,08%</t>
   </si>
   <si>
+    <t>92,39%</t>
+  </si>
+  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
     <t>96,25%</t>
   </si>
   <si>
+    <t>7,61%</t>
+  </si>
+  <si>
     <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E9D0E3-4C87-4801-BFB7-00F7D9B38E7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D06498D-4304-4829-820D-7A1C66760E1B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1663</v>
+        <v>1353</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -897,16 +897,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1353</v>
+        <v>1663</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -921,7 +921,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -930,34 +930,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>654</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -981,34 +981,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2007</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1663</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2007</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -1017,13 +1017,13 @@
         <v>3669</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1034,10 +1034,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>16413</v>
+        <v>14659</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -1046,13 +1046,13 @@
         <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>14659</v>
+        <v>16413</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>27</v>
@@ -1061,7 +1061,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -1076,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>818</v>
+        <v>654</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>32</v>
@@ -1103,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>654</v>
+        <v>818</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -1124,7 +1124,7 @@
         <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -1136,34 +1136,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15313</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>26</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>17231</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7">
-        <v>15313</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -1172,13 +1172,13 @@
         <v>32544</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1189,34 +1189,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>4517</v>
+        <v>2046</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>2046</v>
+        <v>4517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -1225,13 +1225,13 @@
         <v>6563</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1246,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>41</v>
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>42</v>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -1291,34 +1291,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2046</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>4517</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2046</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -1327,13 +1327,13 @@
         <v>6563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,10 +1344,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>22593</v>
+        <v>18058</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -1356,13 +1356,13 @@
         <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>18058</v>
+        <v>22593</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
@@ -1371,7 +1371,7 @@
         <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -1395,31 +1395,31 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>818</v>
+        <v>1308</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1308</v>
+        <v>818</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>54</v>
@@ -1446,34 +1446,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7">
+        <v>19366</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>34</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>23411</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>27</v>
-      </c>
-      <c r="I15" s="7">
-        <v>19366</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -1482,13 +1482,13 @@
         <v>42776</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117B3B49-48ED-4BE2-A0A9-5B08EB203579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26928599-B514-4F42-B32E-36616479B829}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1630,34 +1630,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2159</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1359</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2159</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -1666,13 +1666,13 @@
         <v>3517</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,28 +1687,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>61</v>
@@ -1732,34 +1732,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2159</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1359</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2159</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -1768,13 +1768,13 @@
         <v>3517</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,34 +1785,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>12605</v>
+        <v>12237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>12237</v>
+        <v>12605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -1821,13 +1821,13 @@
         <v>24842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>65</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>66</v>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>67</v>
@@ -1887,34 +1887,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12237</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>18</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>12605</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>17</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12237</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -1923,13 +1923,13 @@
         <v>24842</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,31 +1940,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3362</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4983</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3362</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1982,7 +1982,7 @@
         <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,34 +1991,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1097</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>75</v>
@@ -2042,34 +2042,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3362</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>6080</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3362</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -2078,13 +2078,13 @@
         <v>9443</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,28 +2095,28 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>17758</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7">
         <v>27</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>18947</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17758</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>78</v>
@@ -2137,7 +2137,7 @@
         <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,31 +2146,31 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1097</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>83</v>
@@ -2185,7 +2185,7 @@
         <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -2197,34 +2197,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>20044</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>25</v>
-      </c>
-      <c r="I15" s="7">
-        <v>17758</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -2233,13 +2233,13 @@
         <v>37802</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD08CF5E-9647-495F-B208-940B3DCB5D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2884BA48-1D59-4A93-BC35-7722AB163578}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2381,32 +2381,32 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>791</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2415,13 +2415,13 @@
         <v>791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,31 +2432,31 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>89</v>
@@ -2479,32 +2479,32 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>791</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2513,13 +2513,13 @@
         <v>791</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,34 +2530,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13010</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
         <v>21</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>14752</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13010</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -2566,13 +2566,13 @@
         <v>27763</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>91</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,29 +2587,29 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>93</v>
@@ -2632,34 +2632,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>13010</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>14752</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7">
-        <v>13010</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -2668,13 +2668,13 @@
         <v>27763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,34 +2685,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4613</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2732</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4613</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2721,13 +2721,13 @@
         <v>7344</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,29 +2742,29 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>97</v>
@@ -2787,34 +2787,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4613</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>2732</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4613</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -2823,13 +2823,13 @@
         <v>7344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,34 +2840,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>18275</v>
+        <v>17623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>17623</v>
+        <v>18275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -2876,13 +2876,13 @@
         <v>35898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>101</v>
@@ -2912,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>102</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>103</v>
@@ -2942,34 +2942,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17623</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>18275</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>24</v>
-      </c>
-      <c r="I15" s="7">
-        <v>17623</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>50</v>
@@ -2978,13 +2978,13 @@
         <v>35898</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
